--- a/data/Internet.xlsx
+++ b/data/Internet.xlsx
@@ -592,27 +592,37 @@
           <t>John</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>150</v>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>50</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>0.48</v>
+        <v>0.32</v>
       </c>
       <c r="F2" t="n">
-        <v>41.25000000000001</v>
+        <v>32</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -621,7 +631,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C3" t="n">
         <v>15</v>
@@ -633,14 +643,18 @@
         <v>0.48</v>
       </c>
       <c r="F3" t="n">
-        <v>43.2</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">

--- a/data/Internet.xlsx
+++ b/data/Internet.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="April" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="May" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="June" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -447,7 +448,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Consumption Period</t>
+          <t>Consumption Days</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -457,7 +458,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Consumption Duration</t>
+          <t>Consumption (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -557,7 +558,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Consumption Period</t>
+          <t>Consumption Days</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -567,7 +568,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Consumption Duration</t>
+          <t>Consumption (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -592,20 +593,14 @@
           <t>John</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>0.32</v>
@@ -681,6 +676,193 @@
       <c r="H4" t="inlineStr">
         <is>
           <t>May</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Customer Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Unit Price</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Consumption Days</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Usage (%)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Consumption (%)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Net Price</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Month</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>200</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F2" t="n">
+        <v>134</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>June</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Jane</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>200</v>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>90</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>90</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>June</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Jack</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>150</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>June</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F5" t="n">
+        <v>134</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>June</t>
         </is>
       </c>
     </row>

--- a/data/Internet.xlsx
+++ b/data/Internet.xlsx
@@ -448,12 +448,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Consumption Days</t>
+          <t>Consumption Period</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Usage (%)</t>
+          <t>Utilisation (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -558,12 +558,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Consumption Days</t>
+          <t>Consumption Period</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Usage (%)</t>
+          <t>Utilisation (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -690,7 +690,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -711,12 +711,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Consumption Days</t>
+          <t>Consumption Period</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Usage (%)</t>
+          <t>Utilisation (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -737,6 +737,11 @@
       <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Month</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Price Per GB</t>
         </is>
       </c>
     </row>
@@ -771,6 +776,7 @@
           <t>June</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -803,6 +809,7 @@
           <t>June</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -831,6 +838,7 @@
           <t>June</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -838,20 +846,14 @@
           <t>Adam</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+      <c r="B5" t="n">
+        <v>200</v>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>100</v>
       </c>
       <c r="E5" t="n">
         <v>0.67</v>
@@ -863,6 +865,44 @@
       <c r="H5" t="inlineStr">
         <is>
           <t>June</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>June</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>100</t>
         </is>
       </c>
     </row>

--- a/data/Internet.xlsx
+++ b/data/Internet.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Remarks</t>
+          <t>Category</t>
         </is>
       </c>
     </row>
@@ -578,7 +578,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Remarks</t>
+          <t>Category</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Remarks</t>
+          <t>Category</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -878,15 +878,11 @@
       <c r="B6" t="n">
         <v>10</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>100</v>
       </c>
       <c r="E6" t="n">
         <v>0.03</v>
@@ -900,10 +896,8 @@
           <t>June</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+      <c r="I6" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/data/Internet.xlsx
+++ b/data/Internet.xlsx
@@ -690,7 +690,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -739,11 +739,6 @@
           <t>Month</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Price Per GB</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -752,23 +747,23 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
         <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>134</v>
+        <v>400</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -776,7 +771,6 @@
           <t>June</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -809,7 +803,6 @@
           <t>June</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -838,7 +831,6 @@
           <t>June</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -867,7 +859,6 @@
           <t>June</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -876,19 +867,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>400</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03</v>
+        <v>0.13</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
@@ -896,8 +887,37 @@
           <t>June</t>
         </is>
       </c>
-      <c r="I6" t="n">
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>New2</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>400</v>
+      </c>
+      <c r="C7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D7" t="n">
         <v>100</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>400</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>June</t>
+        </is>
       </c>
     </row>
   </sheetData>
